--- a/medicine/Psychotrope/Trafic_de_cannabis/Trafic_de_cannabis.xlsx
+++ b/medicine/Psychotrope/Trafic_de_cannabis/Trafic_de_cannabis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trafic de cannabis consiste à échanger de l'argent contre des produits illicites importés, tels que le shit (résine de cannabis) ou l'herbe. Ces substances proviennent plus spécialement, du Maroc pour la résine et des Pays-Bas pour l'herbe. Le trafic de cannabis est assimilé en France au trafic de stupéfiants, crime passible de trente ans de réclusion criminelle lorsqu'il est pratiqué par des bandes organisées.
 </t>
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dealers ont des connaissances qui leur permettent d'importer en France de la résine ou de l'herbe qu'ils vont revendre en gros ou au détail.
 Le « go fast » est un procédé qui consiste à importer des produits illicites, notamment du cannabis, en conduisant à grande vitesse des véhicules puissants, sur un trajet de l'étranger à la France, sans arrêter le véhicule.
@@ -547,10 +561,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>en France
-Le trafic de stupéfiants (dont le cannabis fait partie), s'il est pratiqué sans circonstances aggravantes, expose en France ses auteurs à des peines allant de dix à vingt ans d'emprisonnement selon les cas, et jusqu'à 7 500 000 euros d'amende[1].
-Le trafic de stupéfiants est passible en France de trente ans de réclusion criminelle et de 7 500 000 euros d'amende lorsqu'il est effectué en bande organisée[1].
-En cas de blanchiment de l'argent provenant du trafic, la sanction peut s'élever à la réclusion criminelle à perpétuité, et à 7 500 000 euros d'amende[1].</t>
+          <t>en France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le trafic de stupéfiants (dont le cannabis fait partie), s'il est pratiqué sans circonstances aggravantes, expose en France ses auteurs à des peines allant de dix à vingt ans d'emprisonnement selon les cas, et jusqu'à 7 500 000 euros d'amende.
+Le trafic de stupéfiants est passible en France de trente ans de réclusion criminelle et de 7 500 000 euros d'amende lorsqu'il est effectué en bande organisée.
+En cas de blanchiment de l'argent provenant du trafic, la sanction peut s'élever à la réclusion criminelle à perpétuité, et à 7 500 000 euros d'amende.</t>
         </is>
       </c>
     </row>
@@ -578,9 +597,11 @@
           <t>Pays d'exportation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le principal pays d'exportation est le Maroc, mais depuis 2015 l'Albanie[2] voit sa production augmenter au cœur de l'Europe : 5 millions de plantes y ont été détruits en 2016. La mafia albanaise contrôle cette agriculture illégale, les principaux débouchés étant l'Italie, la Suisse et la France.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal pays d'exportation est le Maroc, mais depuis 2015 l'Albanie voit sa production augmenter au cœur de l'Europe : 5 millions de plantes y ont été détruits en 2016. La mafia albanaise contrôle cette agriculture illégale, les principaux débouchés étant l'Italie, la Suisse et la France.
 </t>
         </is>
       </c>
